--- a/src/constants/i18n/script/i18n.xlsx
+++ b/src/constants/i18n/script/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6644\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C68C1-7D40-49B2-96FD-C494D2F51C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9535926-54A7-4DD7-B7BD-4EFF9960A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="335">
   <si>
     <t>encode</t>
   </si>
@@ -1094,12 +1094,40 @@
     <t>Transaction</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>urlRule</t>
+  </si>
+  <si>
+    <t>Please enter the correct URL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>请输入正确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1179,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1179,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1203,6 +1245,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7257,7 +7302,9 @@
   </sheetPr>
   <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7949,13 +7996,13 @@
     </row>
     <row r="21" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>332</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>333</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7983,13 +8030,13 @@
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -8017,13 +8064,13 @@
     </row>
     <row r="23" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -8051,13 +8098,13 @@
     </row>
     <row r="24" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -8085,13 +8132,13 @@
     </row>
     <row r="25" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -8119,13 +8166,13 @@
     </row>
     <row r="26" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -8153,13 +8200,13 @@
     </row>
     <row r="27" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8187,13 +8234,13 @@
     </row>
     <row r="28" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8221,13 +8268,13 @@
     </row>
     <row r="29" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -8255,13 +8302,13 @@
     </row>
     <row r="30" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -8289,13 +8336,13 @@
     </row>
     <row r="31" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -8323,13 +8370,13 @@
     </row>
     <row r="32" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -8357,13 +8404,13 @@
     </row>
     <row r="33" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -8391,13 +8438,13 @@
     </row>
     <row r="34" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -8425,13 +8472,13 @@
     </row>
     <row r="35" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -8459,13 +8506,13 @@
     </row>
     <row r="36" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -8493,13 +8540,13 @@
     </row>
     <row r="37" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -8527,13 +8574,13 @@
     </row>
     <row r="38" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -8561,13 +8608,13 @@
     </row>
     <row r="39" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -8595,13 +8642,13 @@
     </row>
     <row r="40" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -8629,13 +8676,13 @@
     </row>
     <row r="41" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -8663,13 +8710,13 @@
     </row>
     <row r="42" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -8697,13 +8744,13 @@
     </row>
     <row r="43" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -8730,9 +8777,15 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -24097,7 +24150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F39D11-A7A3-4FE8-B1AB-67D4F2CDFFC1}">
   <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/src/constants/i18n/script/i18n.xlsx
+++ b/src/constants/i18n/script/i18n.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="341">
   <si>
     <t>encode</t>
   </si>
@@ -768,25 +768,7 @@
     <t>{secs}秒前</t>
   </si>
   <si>
-    <t>{secs} secs ago</t>
-  </si>
-  <si>
-    <t>halfAMinuteAgo</t>
-  </si>
-  <si>
-    <t>半分钟前</t>
-  </si>
-  <si>
-    <t>half a minute ago</t>
-  </si>
-  <si>
-    <t>aMinuteAgo</t>
-  </si>
-  <si>
-    <t>一分钟前</t>
-  </si>
-  <si>
-    <t>a minute ago</t>
+    <t>{secs}s ago</t>
   </si>
   <si>
     <t>nMinutesAgo</t>
@@ -795,16 +777,7 @@
     <t>{minutes}分钟前</t>
   </si>
   <si>
-    <t>{minutes} minutes ago</t>
-  </si>
-  <si>
-    <t>aHourAgo</t>
-  </si>
-  <si>
-    <t>一小时前</t>
-  </si>
-  <si>
-    <t>a hour ago</t>
+    <t>{minutes}m ago</t>
   </si>
   <si>
     <t>nHoursAgo</t>
@@ -813,16 +786,7 @@
     <t>{hours}小时前</t>
   </si>
   <si>
-    <t>{hours} hours ago</t>
-  </si>
-  <si>
-    <t>aDayAgo</t>
-  </si>
-  <si>
-    <t>一天前</t>
-  </si>
-  <si>
-    <t>a day ago</t>
+    <t>{hours}h ago</t>
   </si>
   <si>
     <t>nDaysAgo</t>
@@ -831,7 +795,7 @@
     <t>{days}天前</t>
   </si>
   <si>
-    <t>{days} days ago</t>
+    <t>{days}d ago</t>
   </si>
   <si>
     <t>cancel</t>
@@ -1097,6 +1061,9 @@
   <si>
     <t>View</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -1163,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1181,6 +1148,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1961,7 +1934,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>246</v>
       </c>
@@ -1995,7 +1968,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>249</v>
       </c>
@@ -2029,7 +2002,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>252</v>
       </c>
@@ -2063,7 +2036,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A17" s="3" t="s">
         <v>255</v>
       </c>
@@ -2097,15 +2070,15 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A18" s="3" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -2133,13 +2106,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -2167,13 +2140,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -2201,13 +2174,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -2235,13 +2208,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="3" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -2269,13 +2242,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -2303,13 +2276,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -2337,13 +2310,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -2371,13 +2344,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
@@ -2405,10 +2378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>282</v>
@@ -2541,13 +2514,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
@@ -2575,13 +2548,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A32" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
@@ -2609,13 +2582,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
@@ -2643,13 +2616,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A34" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
@@ -2677,13 +2650,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
@@ -2711,13 +2684,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
@@ -2745,13 +2718,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A37" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
@@ -2779,10 +2752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A38" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>312</v>
@@ -3084,13 +3057,13 @@
       <c r="Z46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>339</v>
       </c>
       <c r="D47" s="3"/>
@@ -3118,14 +3091,14 @@
       <c r="Z47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>342</v>
+      <c r="B48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
@@ -3152,14 +3125,14 @@
       <c r="Z48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>345</v>
+      <c r="A49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
@@ -3186,14 +3159,14 @@
       <c r="Z49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A50" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>348</v>
+      <c r="A50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
@@ -3220,14 +3193,14 @@
       <c r="Z50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>351</v>
+      <c r="A51" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
